--- a/Data/fertility.xlsx
+++ b/Data/fertility.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzelegesari/Documents/GitHub/emu660-spring2025-Selenzel/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E9EDE8-3096-1E41-A059-EDB0969F9422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59188D0-4C5A-AE44-BCA8-D422BA07B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{5D2350C2-C0DF-3D46-A5BB-10418BA928B9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{5D2350C2-C0DF-3D46-A5BB-10418BA928B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Doğurganlık" sheetId="1" r:id="rId1"/>
